--- a/ZeroErr_Quotation_12_20250306.xlsx
+++ b/ZeroErr_Quotation_12_20250306.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,13 +26,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
-      <color rgb="00000080"/>
-      <sz val="14"/>
+      <color rgb="00002060"/>
+      <sz val="16"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <name val="Microsoft YaHei"/>
+      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -76,26 +81,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,6 +182,61 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="571500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="571500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,11 +538,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,295 +552,202 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>To:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>06.03.2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Company:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Quotation #:</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025030601</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Street Address:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Street Address:</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fuyuan 1st, Fuhai City, ZIP Code:</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>City, ST  ZIP Code:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11, 11, 1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bao'an, Shen Zhen, 518103</t>
-        </is>
-      </c>
-    </row>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To:  12
+Company: 1
+Street Address: 31
+City, ST  ZIP Code: 316, 3, 3
+Phone: </t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Date：2025.03.06
+Quotation #: 2025030601
+Street Address：Fuyuan 1st, Fuhai City, ZIP Code：
+Bao'an，Shen Zhen, 518103
+Phone：+86 18922807806</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Phone:</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Phone:</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+86 18922807806</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Quotation List</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>IMAGES</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>MODELS</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>QUANTITY (PC)</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>WEIGHT (KG/PC)</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>UNIT PRICE (USD/PC)</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>AMOUNT (USD)</t>
         </is>
       </c>
     </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>eRob80H120I-BHM-18CN</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>1043</v>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>$ 6,258.00</t>
+        </is>
+      </c>
+    </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>eRob1120I-BHM-18CN</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>eRob Universal Accessories Kit</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>$ 210.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>eRob to PC Connector</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>$ 69.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>eRob Universal Accessories Kit</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>$ 35.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>eRob to PC Connector</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="E10" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>$ 66.00</t>
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Remarks:
+1. Price term: DAP 3
+2. Payment term: T/T, 100% advance payment.
+3. Leading time: 12 working days after the payment.
+4.The price needs to be updated if the exchange rate fluctuate more than 10%.</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>$ 6,534.00</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Remarks:</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>SUBTOTAL</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>$ 170.00</t>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>FREIGHT</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>$ 817.00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1. Price term: DAP 1</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>FREIGHT</t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>$ 817.00</t>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>$ -</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2. Payment term: T/T. 100% advance payment.</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3. Leading time: 12 working days after the payment.</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>$ 987.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4.The price needs to be updated if the exchange rate fluctuate more than 10%.</t>
-        </is>
-      </c>
-    </row>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>$ 7,351.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="D2:F5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A11:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>